--- a/GoharSang/File/ReportEntry.xlsx
+++ b/GoharSang/File/ReportEntry.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ردیف</t>
   </si>
@@ -54,13 +54,16 @@
   </si>
   <si>
     <t>گزارش ورود</t>
+  </si>
+  <si>
+    <t>تصاویر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +73,13 @@
     </font>
     <font>
       <sz val="48"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -96,12 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q5"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -412,8 +425,12 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -431,8 +448,10 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -450,8 +469,10 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -469,8 +490,10 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -488,8 +511,10 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -527,7 +552,8 @@
       <c r="Q6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="R1:S5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
